--- a/Week-4/LA Stats.xlsx
+++ b/Week-4/LA Stats.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$43</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -477,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,183 +546,185 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>0.69499999999999995</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>7.27</v>
+        <v>-5.28</v>
       </c>
       <c r="H2">
-        <v>95.9</v>
+        <v>99.6</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="J2">
-        <v>112.1</v>
+        <v>102.9</v>
       </c>
       <c r="K2">
-        <v>5.4</v>
+        <v>-3.4</v>
       </c>
       <c r="L2">
-        <v>104.8</v>
+        <v>108.6</v>
       </c>
       <c r="M2">
-        <v>-1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>0.68300000000000005</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>6.43</v>
+        <v>-3.93</v>
       </c>
       <c r="H3">
-        <v>91.1</v>
+        <v>95.5</v>
       </c>
       <c r="I3">
-        <v>-0.9</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
-        <v>110.6</v>
+        <v>104.8</v>
       </c>
       <c r="K3">
-        <v>4.7</v>
+        <v>-1.5</v>
       </c>
       <c r="L3">
-        <v>103.6</v>
+        <v>109.3</v>
       </c>
       <c r="M3">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="e">
+        <f>1-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>0.60599999999999998</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>2.82</v>
+        <v>-8.43</v>
       </c>
       <c r="H4">
-        <v>89.2</v>
+        <v>94.3</v>
       </c>
       <c r="I4">
-        <v>-2.1</v>
+        <v>1.4</v>
       </c>
       <c r="J4">
-        <v>108.5</v>
+        <v>101.5</v>
       </c>
       <c r="K4">
-        <v>3.9</v>
+        <v>-6.8</v>
       </c>
       <c r="L4">
-        <v>105.7</v>
+        <v>111.1</v>
       </c>
       <c r="M4">
-        <v>1.1000000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="N4" s="1">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>0.39</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
       <c r="G5">
-        <v>-2.71</v>
+        <v>-0.01</v>
       </c>
       <c r="H5">
-        <v>92.8</v>
+        <v>95.2</v>
       </c>
       <c r="I5">
-        <v>0.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J5">
-        <v>105.3</v>
+        <v>109.1</v>
       </c>
       <c r="K5">
-        <v>-2</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>108.7</v>
+        <v>109.4</v>
       </c>
       <c r="M5">
-        <v>1.4</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.25</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N5" s="1" t="e">
+        <f>1-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -734,644 +739,651 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>-6.01</v>
+        <v>-3.46</v>
       </c>
       <c r="H6">
-        <v>92.6</v>
+        <v>93.2</v>
       </c>
       <c r="I6">
-        <v>-0.1</v>
+        <v>1.4</v>
       </c>
       <c r="J6">
-        <v>103.3</v>
+        <v>106.5</v>
       </c>
       <c r="K6">
-        <v>-4.3</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="L6">
-        <v>110.1</v>
+        <v>110.3</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N6" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>0.23200000000000001</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>-8.4700000000000006</v>
+        <v>4.21</v>
       </c>
       <c r="H7">
-        <v>92.1</v>
+        <v>92.4</v>
       </c>
       <c r="I7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J7">
-        <v>102.3</v>
+        <v>111.4</v>
       </c>
       <c r="K7">
-        <v>-6</v>
+        <v>3.8</v>
       </c>
       <c r="L7">
-        <v>111.7</v>
+        <v>106.6</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="N7" s="1" t="e">
+        <f>1-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>0.28000000000000003</v>
+        <v>0.439</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
-        <v>-6.56</v>
+        <v>-2.66</v>
       </c>
       <c r="H8">
-        <v>92.1</v>
+        <v>91.3</v>
       </c>
       <c r="I8">
-        <v>-0.3</v>
+        <v>1.2</v>
       </c>
       <c r="J8">
-        <v>101.2</v>
+        <v>105.1</v>
       </c>
       <c r="K8">
-        <v>-6.3</v>
+        <v>-1.6</v>
       </c>
       <c r="L8">
-        <v>109.1</v>
+        <v>107.6</v>
       </c>
       <c r="M8">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>0.48799999999999999</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>-7.0000000000000007E-2</v>
+        <v>3.66</v>
       </c>
       <c r="H9">
-        <v>90.8</v>
+        <v>91.1</v>
       </c>
       <c r="I9">
-        <v>-1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>105.1</v>
+        <v>108.3</v>
       </c>
       <c r="K9">
-        <v>-1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L9">
-        <v>105.6</v>
+        <v>103.7</v>
       </c>
       <c r="M9">
-        <v>-0.9</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.5</v>
+        <v>-3</v>
+      </c>
+      <c r="N9" s="1" t="e">
+        <f>1-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E10">
-        <v>0.57299999999999995</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>1.75</v>
+        <v>-7.53</v>
       </c>
       <c r="H10">
-        <v>91.7</v>
+        <v>92.4</v>
       </c>
       <c r="I10">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="J10">
-        <v>105.3</v>
+        <v>103.3</v>
       </c>
       <c r="K10">
-        <v>-0.9</v>
+        <v>-1.7</v>
       </c>
       <c r="L10">
-        <v>103.6</v>
+        <v>111.2</v>
       </c>
       <c r="M10">
-        <v>-2.6</v>
+        <v>6.2</v>
       </c>
       <c r="N10" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>0.45100000000000001</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>-0.47</v>
+        <v>6.88</v>
       </c>
       <c r="H11">
-        <v>89.1</v>
+        <v>93.6</v>
       </c>
       <c r="I11">
-        <v>-1.8</v>
+        <v>3.3</v>
       </c>
       <c r="J11">
-        <v>105.5</v>
+        <v>111.9</v>
       </c>
       <c r="K11">
-        <v>-0.6</v>
+        <v>6.9</v>
       </c>
       <c r="L11">
-        <v>106.4</v>
+        <v>103.7</v>
       </c>
       <c r="M11">
-        <v>0.3</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.5</v>
+        <v>-1.3</v>
+      </c>
+      <c r="N11" s="1" t="e">
+        <f>1-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>0.34100000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="F12">
         <v>7</v>
       </c>
       <c r="G12">
-        <v>-3.74</v>
+        <v>-8.94</v>
       </c>
       <c r="H12">
-        <v>91</v>
+        <v>89.5</v>
       </c>
       <c r="I12">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="J12">
-        <v>103.5</v>
+        <v>100</v>
       </c>
       <c r="K12">
-        <v>0.6</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="L12">
-        <v>108.5</v>
+        <v>109.7</v>
       </c>
       <c r="M12">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="N12" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>0.32900000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>-3.45</v>
+        <v>2.68</v>
       </c>
       <c r="H13">
-        <v>91.3</v>
+        <v>91.6</v>
       </c>
       <c r="I13">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="J13">
-        <v>102.3</v>
+        <v>107.6</v>
       </c>
       <c r="K13">
-        <v>-1.3</v>
+        <v>5.4</v>
       </c>
       <c r="L13">
-        <v>106.8</v>
+        <v>104.3</v>
       </c>
       <c r="M13">
-        <v>3.2</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
+        <v>2.1</v>
+      </c>
+      <c r="N13" s="1" t="e">
+        <f>1-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E14">
-        <v>0.47599999999999998</v>
+        <v>0.183</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>-0.09</v>
+        <v>-10.73</v>
       </c>
       <c r="H14">
-        <v>90.1</v>
+        <v>93.9</v>
       </c>
       <c r="I14">
-        <v>-0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J14">
-        <v>105.5</v>
+        <v>97.8</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>-6.3</v>
       </c>
       <c r="L14">
-        <v>106</v>
+        <v>110.1</v>
       </c>
       <c r="M14">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="N14" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>0.378</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>-2.23</v>
+        <v>8.41</v>
       </c>
       <c r="H15">
-        <v>89.6</v>
+        <v>93.3</v>
       </c>
       <c r="I15">
-        <v>-1.7</v>
+        <v>0.2</v>
       </c>
       <c r="J15">
-        <v>101.3</v>
+        <v>107.3</v>
       </c>
       <c r="K15">
-        <v>-1.7</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
-        <v>104.5</v>
+        <v>98.2</v>
       </c>
       <c r="M15">
-        <v>1.5</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.25</v>
+        <v>-5.9</v>
+      </c>
+      <c r="N15" s="1" t="e">
+        <f>1-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>0.183</v>
+        <v>0.378</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>-10.73</v>
+        <v>-2.23</v>
       </c>
       <c r="H16">
-        <v>93.9</v>
+        <v>89.6</v>
       </c>
       <c r="I16">
-        <v>0.8</v>
+        <v>-1.7</v>
       </c>
       <c r="J16">
-        <v>97.8</v>
+        <v>101.3</v>
       </c>
       <c r="K16">
-        <v>-6.3</v>
+        <v>-1.7</v>
       </c>
       <c r="L16">
-        <v>110.1</v>
+        <v>104.5</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>0.18</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>-8.94</v>
+        <v>3.74</v>
       </c>
       <c r="H17">
-        <v>89.5</v>
+        <v>91.7</v>
       </c>
       <c r="I17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>108.4</v>
       </c>
       <c r="K17">
-        <v>-2.2000000000000002</v>
+        <v>5.4</v>
       </c>
       <c r="L17">
-        <v>109.7</v>
+        <v>104.8</v>
       </c>
       <c r="M17">
-        <v>7.5</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
+        <v>1.8</v>
+      </c>
+      <c r="N17" s="1" t="e">
+        <f>1-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E18">
-        <v>0.20699999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>-7.53</v>
+        <v>-0.09</v>
       </c>
       <c r="H18">
-        <v>92.4</v>
+        <v>90.1</v>
       </c>
       <c r="I18">
-        <v>2.1</v>
+        <v>-0.6</v>
       </c>
       <c r="J18">
-        <v>103.3</v>
+        <v>105.5</v>
       </c>
       <c r="K18">
-        <v>-1.7</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>111.2</v>
+        <v>106</v>
       </c>
       <c r="M18">
-        <v>6.2</v>
+        <v>1.5</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>0.439</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>-2.66</v>
+        <v>7.15</v>
       </c>
       <c r="H19">
-        <v>91.3</v>
+        <v>92.1</v>
       </c>
       <c r="I19">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J19">
-        <v>105.1</v>
+        <v>109.4</v>
       </c>
       <c r="K19">
-        <v>-1.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L19">
-        <v>107.6</v>
+        <v>101.7</v>
       </c>
       <c r="M19">
-        <v>0.9</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0.5</v>
+        <v>-2.8</v>
+      </c>
+      <c r="N19" s="1" t="e">
+        <f>1-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20">
-        <v>0.35399999999999998</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F20">
         <v>7</v>
       </c>
       <c r="G20">
-        <v>-3.46</v>
+        <v>-3.45</v>
       </c>
       <c r="H20">
-        <v>93.2</v>
+        <v>91.3</v>
       </c>
       <c r="I20">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="J20">
-        <v>106.5</v>
+        <v>102.3</v>
       </c>
       <c r="K20">
-        <v>-1.1000000000000001</v>
+        <v>-1.3</v>
       </c>
       <c r="L20">
-        <v>110.3</v>
+        <v>106.8</v>
       </c>
       <c r="M20">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -1379,863 +1391,856 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E21">
-        <v>0.20699999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>-8.43</v>
+        <v>2.71</v>
       </c>
       <c r="H21">
-        <v>94.3</v>
+        <v>92.5</v>
       </c>
       <c r="I21">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J21">
-        <v>101.5</v>
+        <v>107.2</v>
       </c>
       <c r="K21">
-        <v>-6.8</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>111.1</v>
+        <v>104.7</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N21" s="1" t="e">
+        <f>1-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22">
-        <v>0.32900000000000001</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="F22">
         <v>7</v>
       </c>
       <c r="G22">
-        <v>-5.28</v>
+        <v>-3.74</v>
       </c>
       <c r="H22">
-        <v>99.6</v>
+        <v>91</v>
       </c>
       <c r="I22">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J22">
-        <v>102.9</v>
+        <v>103.5</v>
       </c>
       <c r="K22">
-        <v>-3.4</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="M22">
-        <v>2.2999999999999998</v>
+        <v>5.6</v>
       </c>
       <c r="N22" s="1">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E23">
-        <v>0.32900000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>-5.33</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H23">
-        <v>98.7</v>
+        <v>92.3</v>
       </c>
       <c r="I23">
-        <v>4.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J23">
-        <v>104.2</v>
+        <v>105.5</v>
       </c>
       <c r="K23">
-        <v>-2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L23">
-        <v>110.6</v>
+        <v>101.3</v>
       </c>
       <c r="M23">
-        <v>3.9</v>
+        <v>-1.6</v>
       </c>
       <c r="N23" s="1">
         <f>1-N2</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24">
+        <v>37</v>
+      </c>
+      <c r="D24">
         <v>45</v>
       </c>
-      <c r="D24">
-        <v>37</v>
-      </c>
       <c r="E24">
-        <v>0.54900000000000004</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24">
-        <v>1.48</v>
+        <v>-0.47</v>
       </c>
       <c r="H24">
-        <v>94.4</v>
+        <v>89.1</v>
       </c>
       <c r="I24">
-        <v>2.4</v>
+        <v>-1.8</v>
       </c>
       <c r="J24">
-        <v>107.8</v>
+        <v>105.5</v>
       </c>
       <c r="K24">
-        <v>1.9</v>
+        <v>-0.6</v>
       </c>
       <c r="L24">
-        <v>106.6</v>
+        <v>106.4</v>
       </c>
       <c r="M24">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" ref="N24:N43" si="0">1-N3</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E25">
-        <v>0.621</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>1.96</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="H25">
-        <v>90.5</v>
+        <v>90.8</v>
       </c>
       <c r="I25">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="J25">
-        <v>106</v>
+        <v>108.1</v>
       </c>
       <c r="K25">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>104.4</v>
+        <v>111.4</v>
       </c>
       <c r="M25">
-        <v>-0.2</v>
+        <v>5.3</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66999999999999993</v>
+        <f>1-N4</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>47</v>
+      </c>
+      <c r="D26">
         <v>35</v>
       </c>
-      <c r="C26">
-        <v>57</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
       <c r="E26">
-        <v>0.69499999999999995</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>6.01</v>
+        <v>1.75</v>
       </c>
       <c r="H26">
-        <v>90.7</v>
+        <v>91.7</v>
       </c>
       <c r="I26">
-        <v>-1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J26">
-        <v>111</v>
+        <v>105.3</v>
       </c>
       <c r="K26">
-        <v>3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="L26">
-        <v>104.3</v>
+        <v>103.6</v>
       </c>
       <c r="M26">
-        <v>-3</v>
+        <v>-2.6</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E27">
-        <v>0.69499999999999995</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H27">
+        <v>90.9</v>
+      </c>
+      <c r="I27">
+        <v>0.4</v>
+      </c>
+      <c r="J27">
+        <v>108.4</v>
+      </c>
+      <c r="K27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L27">
+        <v>105.7</v>
+      </c>
+      <c r="M27">
+        <v>-0.5</v>
+      </c>
+      <c r="N27" s="1">
+        <f>1-N6</f>
         <v>1</v>
-      </c>
-      <c r="G27">
-        <v>4.78</v>
-      </c>
-      <c r="H27">
-        <v>92.8</v>
-      </c>
-      <c r="I27">
-        <v>0.1</v>
-      </c>
-      <c r="J27">
-        <v>108.8</v>
-      </c>
-      <c r="K27">
-        <v>1.2</v>
-      </c>
-      <c r="L27">
-        <v>103.7</v>
-      </c>
-      <c r="M27">
-        <v>-3.9</v>
-      </c>
-      <c r="N27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E28">
-        <v>0.79300000000000004</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>7.11</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H28">
-        <v>94.3</v>
+        <v>90.8</v>
       </c>
       <c r="I28">
-        <v>2.6</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="J28">
-        <v>112.8</v>
+        <v>105.1</v>
       </c>
       <c r="K28">
-        <v>4.5</v>
+        <v>-1.4</v>
       </c>
       <c r="L28">
-        <v>104.7</v>
+        <v>105.6</v>
       </c>
       <c r="M28">
-        <v>-3.6</v>
+        <v>-0.9</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>0.69499999999999995</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>7.34</v>
+        <v>0.24</v>
       </c>
       <c r="H29">
-        <v>95.6</v>
+        <v>93.5</v>
       </c>
       <c r="I29">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="J29">
-        <v>113</v>
+        <v>108.6</v>
       </c>
       <c r="K29">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>105.5</v>
+        <v>108.6</v>
       </c>
       <c r="M29">
-        <v>-2</v>
+        <v>2.1</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>1-N8</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E30">
-        <v>0.51200000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>0.24</v>
+        <v>-6.56</v>
       </c>
       <c r="H30">
-        <v>93.5</v>
+        <v>92.1</v>
       </c>
       <c r="I30">
+        <v>-0.3</v>
+      </c>
+      <c r="J30">
+        <v>101.2</v>
+      </c>
+      <c r="K30">
+        <v>-6.3</v>
+      </c>
+      <c r="L30">
+        <v>109.1</v>
+      </c>
+      <c r="M30">
         <v>1.6</v>
       </c>
-      <c r="J30">
-        <v>108.6</v>
-      </c>
-      <c r="K30">
-        <v>2.1</v>
-      </c>
-      <c r="L30">
-        <v>108.6</v>
-      </c>
-      <c r="M30">
-        <v>2.1</v>
-      </c>
       <c r="N30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>0.54900000000000004</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>2.5299999999999998</v>
+        <v>7.34</v>
       </c>
       <c r="H31">
-        <v>90.9</v>
+        <v>95.6</v>
       </c>
       <c r="I31">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="J31">
-        <v>108.4</v>
+        <v>113</v>
       </c>
       <c r="K31">
-        <v>2.2000000000000002</v>
+        <v>5.5</v>
       </c>
       <c r="L31">
-        <v>105.7</v>
+        <v>105.5</v>
       </c>
       <c r="M31">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1-N10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E32">
-        <v>0.41499999999999998</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
       <c r="G32">
-        <v>-2.3199999999999998</v>
+        <v>-8.4700000000000006</v>
       </c>
       <c r="H32">
-        <v>90.8</v>
+        <v>92.1</v>
       </c>
       <c r="I32">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J32">
-        <v>108.1</v>
+        <v>102.3</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="L32">
-        <v>111.4</v>
+        <v>111.7</v>
       </c>
       <c r="M32">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E33">
-        <v>0.68300000000000005</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.3499999999999996</v>
+        <v>7.11</v>
       </c>
       <c r="H33">
-        <v>92.3</v>
+        <v>94.3</v>
       </c>
       <c r="I33">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="J33">
-        <v>105.5</v>
+        <v>112.8</v>
       </c>
       <c r="K33">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="L33">
-        <v>101.3</v>
+        <v>104.7</v>
       </c>
       <c r="M33">
-        <v>-1.6</v>
+        <v>-3.6</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f>1-N12</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E34">
-        <v>0.61</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>2.71</v>
+        <v>-6.01</v>
       </c>
       <c r="H34">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="I34">
-        <v>1.5</v>
+        <v>-0.1</v>
       </c>
       <c r="J34">
-        <v>107.2</v>
+        <v>103.3</v>
       </c>
       <c r="K34">
-        <v>3.6</v>
+        <v>-4.3</v>
       </c>
       <c r="L34">
-        <v>104.7</v>
+        <v>110.1</v>
       </c>
       <c r="M34">
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E35">
-        <v>0.70699999999999996</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>7.15</v>
+        <v>4.78</v>
       </c>
       <c r="H35">
-        <v>92.1</v>
+        <v>92.8</v>
       </c>
       <c r="I35">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="J35">
-        <v>109.4</v>
+        <v>108.8</v>
       </c>
       <c r="K35">
-        <v>4.9000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="L35">
-        <v>101.7</v>
+        <v>103.7</v>
       </c>
       <c r="M35">
-        <v>-2.8</v>
+        <v>-3.9</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f>1-N14</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E36">
-        <v>0.68300000000000005</v>
+        <v>0.39</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>3.74</v>
+        <v>-2.71</v>
       </c>
       <c r="H36">
-        <v>91.7</v>
+        <v>92.8</v>
       </c>
       <c r="I36">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="J36">
-        <v>108.4</v>
+        <v>105.3</v>
       </c>
       <c r="K36">
-        <v>5.4</v>
+        <v>-2</v>
       </c>
       <c r="L36">
-        <v>104.8</v>
+        <v>108.7</v>
       </c>
       <c r="M36">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E37">
-        <v>0.81699999999999995</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.41</v>
+        <v>6.01</v>
       </c>
       <c r="H37">
-        <v>93.3</v>
+        <v>90.7</v>
       </c>
       <c r="I37">
-        <v>0.2</v>
+        <v>-1.4</v>
       </c>
       <c r="J37">
-        <v>107.3</v>
+        <v>111</v>
       </c>
       <c r="K37">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="L37">
-        <v>98.2</v>
+        <v>104.3</v>
       </c>
       <c r="M37">
-        <v>-5.9</v>
+        <v>-3</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>1-N16</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E38">
-        <v>0.62</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="H38">
-        <v>91.6</v>
+        <v>89.2</v>
       </c>
       <c r="I38">
-        <v>2.7</v>
+        <v>-2.1</v>
       </c>
       <c r="J38">
-        <v>107.6</v>
+        <v>108.5</v>
       </c>
       <c r="K38">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="L38">
-        <v>104.3</v>
+        <v>105.7</v>
       </c>
       <c r="M38">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
       <c r="C39">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>0.74399999999999999</v>
+        <v>0.621</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>6.88</v>
+        <v>1.96</v>
       </c>
       <c r="H39">
-        <v>93.6</v>
+        <v>90.5</v>
       </c>
       <c r="I39">
-        <v>3.3</v>
+        <v>-0.8</v>
       </c>
       <c r="J39">
-        <v>111.9</v>
+        <v>106</v>
       </c>
       <c r="K39">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>103.7</v>
+        <v>104.4</v>
       </c>
       <c r="M39">
-        <v>-1.3</v>
+        <v>-0.2</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>1-N18</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>56</v>
@@ -2247,170 +2252,173 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>3.66</v>
+        <v>6.43</v>
       </c>
       <c r="H40">
         <v>91.1</v>
       </c>
       <c r="I40">
+        <v>-0.9</v>
+      </c>
+      <c r="J40">
+        <v>110.6</v>
+      </c>
+      <c r="K40">
+        <v>4.7</v>
+      </c>
+      <c r="L40">
+        <v>103.6</v>
+      </c>
+      <c r="M40">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="N40" s="1">
         <v>1</v>
-      </c>
-      <c r="J40">
-        <v>108.3</v>
-      </c>
-      <c r="K40">
-        <v>1.6</v>
-      </c>
-      <c r="L40">
-        <v>103.7</v>
-      </c>
-      <c r="M40">
-        <v>-3</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
       </c>
       <c r="C41">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E41">
-        <v>0.64600000000000002</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>4.21</v>
+        <v>1.48</v>
       </c>
       <c r="H41">
-        <v>92.4</v>
+        <v>94.4</v>
       </c>
       <c r="I41">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="J41">
-        <v>111.4</v>
+        <v>107.8</v>
       </c>
       <c r="K41">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="L41">
         <v>106.6</v>
       </c>
       <c r="M41">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="0"/>
+        <f>1-N20</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E42">
-        <v>0.58499999999999996</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>-0.01</v>
+        <v>7.27</v>
       </c>
       <c r="H42">
-        <v>95.2</v>
+        <v>95.9</v>
       </c>
       <c r="I42">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>109.1</v>
+        <v>112.1</v>
       </c>
       <c r="K42">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="L42">
-        <v>109.4</v>
+        <v>104.8</v>
       </c>
       <c r="M42">
-        <v>1.1000000000000001</v>
+        <v>-1.9</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
       <c r="C43">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E43">
-        <v>0.40200000000000002</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="G43">
-        <v>-3.93</v>
+        <v>-5.33</v>
       </c>
       <c r="H43">
-        <v>95.5</v>
+        <v>98.7</v>
       </c>
       <c r="I43">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="J43">
-        <v>104.8</v>
+        <v>104.2</v>
       </c>
       <c r="K43">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="L43">
-        <v>109.3</v>
+        <v>110.6</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>1-N22</f>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N43">
+    <sortState ref="A2:N43">
+      <sortCondition ref="A1:A43"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
